--- a/infra-blueprint/workspace/CompartmentReports.xlsx
+++ b/infra-blueprint/workspace/CompartmentReports.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7202" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7222" uniqueCount="711">
   <si>
     <t>Step 1: Compartments</t>
   </si>
@@ -696,13 +696,13 @@
     <t>CIDR_BLOCK</t>
   </si>
   <si>
-    <t>BCH - Internal VPN</t>
+    <t>BCH - OnPrem Segment</t>
   </si>
   <si>
     <t>All ASH Production Segment</t>
   </si>
   <si>
-    <t>BCH - OnPrem Segment</t>
+    <t>EGRESS</t>
   </si>
   <si>
     <t>SANDBOX</t>
@@ -2070,7 +2070,7 @@
     <t>ORCL CFREITAS</t>
   </si>
   <si>
-    <t>181.160.82.221/32</t>
+    <t>181.160.88.26/32</t>
   </si>
   <si>
     <t xml:space="preserve">ORCL CGUEVARA
@@ -2089,7 +2089,7 @@
     <t>ORCL MGOMEZ</t>
   </si>
   <si>
-    <t>186.11.88.0/21</t>
+    <t>186.11.0.0/16</t>
   </si>
   <si>
     <t>ORCL JOAVILA</t>
@@ -2531,7 +2531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:J303"/>
+  <dimension ref="A4:J305"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5212,7 +5212,7 @@
         <v>110</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>80</v>
@@ -9798,7 +9798,7 @@
         <v>224</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D301" s="3" t="s">
         <v>80</v>
@@ -9862,7 +9862,7 @@
         <v>224</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D303" s="3" t="s">
         <v>79</v>
@@ -9883,7 +9883,71 @@
         <v>114</v>
       </c>
       <c r="J303" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10">
+      <c r="A304" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B304" s="3" t="s">
         <v>228</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G304" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H304" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I304" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J304" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10">
+      <c r="A305" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G305" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H305" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I305" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J305" s="3" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
